--- a/data/pca/factorExposure/factorExposure_2018-05-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01710398452166585</v>
+        <v>-0.01765598493455713</v>
       </c>
       <c r="C2">
-        <v>0.03929885715660932</v>
+        <v>0.01816907779077737</v>
       </c>
       <c r="D2">
-        <v>-0.01801478155961886</v>
+        <v>-0.02870818565992516</v>
       </c>
       <c r="E2">
-        <v>0.002366630399436722</v>
+        <v>-0.01883855817000799</v>
       </c>
       <c r="F2">
-        <v>-0.1244912651062501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.005209468661151281</v>
+      </c>
+      <c r="G2">
+        <v>0.04690092859414184</v>
+      </c>
+      <c r="H2">
+        <v>-0.05002519636978157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08792924355320855</v>
+        <v>-0.07326634317189801</v>
       </c>
       <c r="C3">
-        <v>0.01999352667014618</v>
+        <v>-0.01164520709168357</v>
       </c>
       <c r="D3">
-        <v>-0.09511162627872646</v>
+        <v>-0.07237191816394009</v>
       </c>
       <c r="E3">
-        <v>0.07256466441209788</v>
+        <v>-0.01065753921843194</v>
       </c>
       <c r="F3">
-        <v>-0.4067651142833881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01815724659259881</v>
+      </c>
+      <c r="G3">
+        <v>0.174640903873812</v>
+      </c>
+      <c r="H3">
+        <v>-0.1621568492140459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04666429412493626</v>
+        <v>-0.04163672724140151</v>
       </c>
       <c r="C4">
-        <v>0.004066070365727184</v>
+        <v>0.004280858268133</v>
       </c>
       <c r="D4">
-        <v>-0.004589539742263185</v>
+        <v>-0.06203433601065608</v>
       </c>
       <c r="E4">
-        <v>-0.05513326457544537</v>
+        <v>0.01758263253196254</v>
       </c>
       <c r="F4">
-        <v>-0.08581552213241274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04453692704376658</v>
+      </c>
+      <c r="G4">
+        <v>0.04268252378423466</v>
+      </c>
+      <c r="H4">
+        <v>-0.05888382450743038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03597378850425084</v>
+        <v>-0.02429701192503356</v>
       </c>
       <c r="C6">
-        <v>0.01048560907853849</v>
+        <v>0.0008655808335977346</v>
       </c>
       <c r="D6">
-        <v>-0.005553353769243732</v>
+        <v>-0.06166814136958925</v>
       </c>
       <c r="E6">
-        <v>-0.02840195678290926</v>
+        <v>0.004245473678805963</v>
       </c>
       <c r="F6">
-        <v>-0.01544328685915653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03033246601057585</v>
+      </c>
+      <c r="G6">
+        <v>0.01188722650163982</v>
+      </c>
+      <c r="H6">
+        <v>-0.06364604027554084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02048672152637838</v>
+        <v>-0.01763464262660584</v>
       </c>
       <c r="C7">
-        <v>-0.005235143850346081</v>
+        <v>0.002703220695570635</v>
       </c>
       <c r="D7">
-        <v>-0.01747834685182671</v>
+        <v>-0.03337294360977295</v>
       </c>
       <c r="E7">
-        <v>-0.03285564713223706</v>
+        <v>0.04153952902108678</v>
       </c>
       <c r="F7">
-        <v>-0.05978780240022127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.00302040607646178</v>
+      </c>
+      <c r="G7">
+        <v>0.02826240382842345</v>
+      </c>
+      <c r="H7">
+        <v>-0.04282533179150898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01727009663113673</v>
+        <v>-0.004428340041096362</v>
       </c>
       <c r="C8">
-        <v>0.01079735643359099</v>
+        <v>-0.001764162005478123</v>
       </c>
       <c r="D8">
-        <v>-0.01658335489467202</v>
+        <v>-0.01430557496589783</v>
       </c>
       <c r="E8">
-        <v>-0.04137017977302572</v>
+        <v>0.004859212943184303</v>
       </c>
       <c r="F8">
-        <v>-0.1014082095266369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01822315937774568</v>
+      </c>
+      <c r="G8">
+        <v>0.04288014305710589</v>
+      </c>
+      <c r="H8">
+        <v>-0.04524339253612624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03603533604117547</v>
+        <v>-0.03168358596143826</v>
       </c>
       <c r="C9">
-        <v>0.006867562155905193</v>
+        <v>0.001090332413342914</v>
       </c>
       <c r="D9">
-        <v>-0.01165616407687522</v>
+        <v>-0.04617048832294919</v>
       </c>
       <c r="E9">
-        <v>-0.04198526616242379</v>
+        <v>0.007530324117018156</v>
       </c>
       <c r="F9">
-        <v>-0.1003238595710566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02081845075661357</v>
+      </c>
+      <c r="G9">
+        <v>0.04737191098391579</v>
+      </c>
+      <c r="H9">
+        <v>-0.05795975494673389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03636435939327103</v>
+        <v>-0.121202567159863</v>
       </c>
       <c r="C10">
-        <v>-0.05905569235566493</v>
+        <v>-0.005372853966171259</v>
       </c>
       <c r="D10">
-        <v>0.06627384437437353</v>
+        <v>0.1604329381683311</v>
       </c>
       <c r="E10">
-        <v>0.1315255170478796</v>
+        <v>-0.0001773693907922244</v>
       </c>
       <c r="F10">
-        <v>-0.06054064429370236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03515603040744017</v>
+      </c>
+      <c r="G10">
+        <v>0.03345197106727738</v>
+      </c>
+      <c r="H10">
+        <v>-0.003336656991094175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03262343148342809</v>
+        <v>-0.01759808327830572</v>
       </c>
       <c r="C11">
-        <v>0.02475770559748581</v>
+        <v>-0.01021252890537064</v>
       </c>
       <c r="D11">
-        <v>-0.01548467531241176</v>
+        <v>-0.04961091403089083</v>
       </c>
       <c r="E11">
-        <v>-0.03224750656129964</v>
+        <v>-0.002174288789765663</v>
       </c>
       <c r="F11">
-        <v>-0.05368282009783647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01216969907405552</v>
+      </c>
+      <c r="G11">
+        <v>0.02757006083609796</v>
+      </c>
+      <c r="H11">
+        <v>-0.05044467151427591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0402859007506486</v>
+        <v>-0.02278046597852393</v>
       </c>
       <c r="C12">
-        <v>0.02373906190158471</v>
+        <v>-0.006750116312974527</v>
       </c>
       <c r="D12">
-        <v>-0.007102851005230198</v>
+        <v>-0.04814111450210227</v>
       </c>
       <c r="E12">
-        <v>-0.03787929575330629</v>
+        <v>0.008431374819179407</v>
       </c>
       <c r="F12">
-        <v>-0.02372444847587302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01505310184820709</v>
+      </c>
+      <c r="G12">
+        <v>0.007609558693416238</v>
+      </c>
+      <c r="H12">
+        <v>-0.02222929977976677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0168988256904546</v>
+        <v>-0.02441307670307639</v>
       </c>
       <c r="C13">
-        <v>0.02231437768169651</v>
+        <v>0.01384660781387301</v>
       </c>
       <c r="D13">
-        <v>-0.0008285266398458856</v>
+        <v>-0.02382077135573183</v>
       </c>
       <c r="E13">
-        <v>-0.006032420453366362</v>
+        <v>-0.01229212350841999</v>
       </c>
       <c r="F13">
-        <v>-0.09188041944092906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02213481947526985</v>
+      </c>
+      <c r="G13">
+        <v>0.06271789511862512</v>
+      </c>
+      <c r="H13">
+        <v>-0.07679506889171368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01778139290096862</v>
+        <v>-0.01634449615326407</v>
       </c>
       <c r="C14">
-        <v>0.0009819972478958769</v>
+        <v>0.000927797261202823</v>
       </c>
       <c r="D14">
-        <v>-0.00344161483782017</v>
+        <v>-0.01551531293887172</v>
       </c>
       <c r="E14">
-        <v>-0.03372634069036985</v>
+        <v>0.01415560790371309</v>
       </c>
       <c r="F14">
-        <v>-0.06391069013747781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01483195919691079</v>
+      </c>
+      <c r="G14">
+        <v>0.04081636262851109</v>
+      </c>
+      <c r="H14">
+        <v>-0.01379566743436807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03168225321969548</v>
+        <v>-0.02079084849256647</v>
       </c>
       <c r="C16">
-        <v>0.0296562818090216</v>
+        <v>-0.009999932156992512</v>
       </c>
       <c r="D16">
-        <v>-0.01346455400493913</v>
+        <v>-0.04068019668710252</v>
       </c>
       <c r="E16">
-        <v>-0.03477379426476929</v>
+        <v>0.001591757139743808</v>
       </c>
       <c r="F16">
-        <v>-0.05010113458066952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01561791959365685</v>
+      </c>
+      <c r="G16">
+        <v>0.02217563981513699</v>
+      </c>
+      <c r="H16">
+        <v>-0.03847903162641793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03296405470714748</v>
+        <v>-0.02383815718070166</v>
       </c>
       <c r="C19">
-        <v>0.02435471956447672</v>
+        <v>0.001044208172979578</v>
       </c>
       <c r="D19">
-        <v>-0.01810009325985905</v>
+        <v>-0.04424458602978466</v>
       </c>
       <c r="E19">
-        <v>-0.02974147835599228</v>
+        <v>0.005595347212843092</v>
       </c>
       <c r="F19">
-        <v>-0.1000712401637393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02536839779712731</v>
+      </c>
+      <c r="G19">
+        <v>0.05527928223667414</v>
+      </c>
+      <c r="H19">
+        <v>-0.06713803076133038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001816386248912095</v>
+        <v>-0.008721416076909438</v>
       </c>
       <c r="C20">
-        <v>-0.003187521203132458</v>
+        <v>0.005291234116218547</v>
       </c>
       <c r="D20">
-        <v>-0.005115634119782929</v>
+        <v>-0.02253458042625753</v>
       </c>
       <c r="E20">
-        <v>-0.02846802491538187</v>
+        <v>0.003950571600360474</v>
       </c>
       <c r="F20">
-        <v>-0.08501299058711476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01472698820424942</v>
+      </c>
+      <c r="G20">
+        <v>0.05618812257284427</v>
+      </c>
+      <c r="H20">
+        <v>-0.02937566310673683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004387836091311247</v>
+        <v>-0.01357079354503867</v>
       </c>
       <c r="C21">
-        <v>-0.01385125311790955</v>
+        <v>0.006827925825872767</v>
       </c>
       <c r="D21">
-        <v>-0.02852322530741423</v>
+        <v>-0.02575497790621717</v>
       </c>
       <c r="E21">
-        <v>-0.03641826328798811</v>
+        <v>0.01992678293213402</v>
       </c>
       <c r="F21">
-        <v>-0.04441708416986213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.008097904726238087</v>
+      </c>
+      <c r="G21">
+        <v>0.04857846900179894</v>
+      </c>
+      <c r="H21">
+        <v>-0.04445358949317113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02934083775711361</v>
+        <v>-0.01573197135413862</v>
       </c>
       <c r="C24">
-        <v>0.02073821373047072</v>
+        <v>-0.004519010883587045</v>
       </c>
       <c r="D24">
-        <v>-0.003197587409330199</v>
+        <v>-0.04362026455506831</v>
       </c>
       <c r="E24">
-        <v>-0.01961851394124126</v>
+        <v>-6.741266769845618e-06</v>
       </c>
       <c r="F24">
-        <v>-0.05018905054571883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01082262930907602</v>
+      </c>
+      <c r="G24">
+        <v>0.01723553283681337</v>
+      </c>
+      <c r="H24">
+        <v>-0.04707637114989344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03128464387706016</v>
+        <v>-0.02770007729894296</v>
       </c>
       <c r="C25">
-        <v>0.01965834791820971</v>
+        <v>-0.002274231597075681</v>
       </c>
       <c r="D25">
-        <v>-0.0187932608834172</v>
+        <v>-0.04640944109378557</v>
       </c>
       <c r="E25">
-        <v>-0.02980552492777013</v>
+        <v>0.005547288335452536</v>
       </c>
       <c r="F25">
-        <v>-0.0528386799745025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01846215201567665</v>
+      </c>
+      <c r="G25">
+        <v>0.02212452992293676</v>
+      </c>
+      <c r="H25">
+        <v>-0.04372548837366891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01846334981529196</v>
+        <v>-0.01495645850512389</v>
       </c>
       <c r="C26">
-        <v>0.01504973987749272</v>
+        <v>0.01893961452401593</v>
       </c>
       <c r="D26">
-        <v>-0.01912603186940755</v>
+        <v>-0.009887122941129962</v>
       </c>
       <c r="E26">
-        <v>-0.005080115064297316</v>
+        <v>-7.623300801930768e-05</v>
       </c>
       <c r="F26">
-        <v>-0.06902955038104262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.002960937404061329</v>
+      </c>
+      <c r="G26">
+        <v>0.03007930332654049</v>
+      </c>
+      <c r="H26">
+        <v>-0.02416182843830918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04858305695892635</v>
+        <v>-0.01849259556652333</v>
       </c>
       <c r="C27">
-        <v>0.01240198404324165</v>
+        <v>-0.006840290747536893</v>
       </c>
       <c r="D27">
-        <v>0.02419455379033174</v>
+        <v>-0.0145803732956084</v>
       </c>
       <c r="E27">
-        <v>-0.0331967228025744</v>
+        <v>0.004108293089160325</v>
       </c>
       <c r="F27">
-        <v>-0.03703032005698612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01229123259676321</v>
+      </c>
+      <c r="G27">
+        <v>0.006962511290814011</v>
+      </c>
+      <c r="H27">
+        <v>0.001163934285494485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06315927531790558</v>
+        <v>-0.1699328164915161</v>
       </c>
       <c r="C28">
-        <v>-0.08768238993737085</v>
+        <v>0.003285678730834083</v>
       </c>
       <c r="D28">
-        <v>0.09522560391347956</v>
+        <v>0.2054319401360378</v>
       </c>
       <c r="E28">
-        <v>0.1644026336803948</v>
+        <v>0.01040043010543385</v>
       </c>
       <c r="F28">
-        <v>-0.05156357935799007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.02978716563178217</v>
+      </c>
+      <c r="G28">
+        <v>0.01843549243475031</v>
+      </c>
+      <c r="H28">
+        <v>0.008837099334238284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02268015240156161</v>
+        <v>-0.0212945203285058</v>
       </c>
       <c r="C29">
-        <v>0.001090496418644512</v>
+        <v>-0.0007278761773458777</v>
       </c>
       <c r="D29">
-        <v>-0.003350557234651868</v>
+        <v>-0.01632862149677314</v>
       </c>
       <c r="E29">
-        <v>-0.04064174592669503</v>
+        <v>0.01440281709738563</v>
       </c>
       <c r="F29">
-        <v>-0.06147099497534452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01643933417533212</v>
+      </c>
+      <c r="G29">
+        <v>0.03984069284061605</v>
+      </c>
+      <c r="H29">
+        <v>-0.005596738169974542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08267447727114875</v>
+        <v>-0.04469144973910531</v>
       </c>
       <c r="C30">
-        <v>0.04426624279812574</v>
+        <v>0.002113614959651124</v>
       </c>
       <c r="D30">
-        <v>-0.0004876594322792256</v>
+        <v>-0.0940325189861651</v>
       </c>
       <c r="E30">
-        <v>-0.07080245643007567</v>
+        <v>-0.03231248611790499</v>
       </c>
       <c r="F30">
-        <v>-0.1133552434867852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04904737701068246</v>
+      </c>
+      <c r="G30">
+        <v>0.06281364451671183</v>
+      </c>
+      <c r="H30">
+        <v>-0.07795279887683539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05959271981397789</v>
+        <v>-0.04796830311881514</v>
       </c>
       <c r="C31">
-        <v>0.03150696116814347</v>
+        <v>-0.009806359415251256</v>
       </c>
       <c r="D31">
-        <v>-0.004794736854497436</v>
+        <v>-0.029367539520258</v>
       </c>
       <c r="E31">
-        <v>-0.01945227891547605</v>
+        <v>-0.004726291814486641</v>
       </c>
       <c r="F31">
-        <v>-0.05136947551025406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.006212486638949467</v>
+      </c>
+      <c r="G31">
+        <v>0.01900692452339209</v>
+      </c>
+      <c r="H31">
+        <v>-0.004197621289981016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0187143239480685</v>
+        <v>-0.01310806972200763</v>
       </c>
       <c r="C32">
-        <v>0.002665867959632459</v>
+        <v>-0.01370550881333915</v>
       </c>
       <c r="D32">
-        <v>-0.02101642841817617</v>
+        <v>-0.01104741973027652</v>
       </c>
       <c r="E32">
-        <v>-0.07485460250671203</v>
+        <v>0.02950997450068626</v>
       </c>
       <c r="F32">
-        <v>-0.07911897267082491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03916817485181106</v>
+      </c>
+      <c r="G32">
+        <v>0.03215495839015491</v>
+      </c>
+      <c r="H32">
+        <v>-0.05880805973974033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04688279956846541</v>
+        <v>-0.02843553559297538</v>
       </c>
       <c r="C33">
-        <v>0.03150250306211168</v>
+        <v>0.0001979385084284897</v>
       </c>
       <c r="D33">
-        <v>-0.03745601723633776</v>
+        <v>-0.04590630958022922</v>
       </c>
       <c r="E33">
-        <v>-0.03414757651378337</v>
+        <v>-0.01979201555959961</v>
       </c>
       <c r="F33">
-        <v>-0.0868786851215561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0007636380898826675</v>
+      </c>
+      <c r="G33">
+        <v>0.04783044363061069</v>
+      </c>
+      <c r="H33">
+        <v>-0.0513049454400921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0301058066777714</v>
+        <v>-0.02514751967764347</v>
       </c>
       <c r="C34">
-        <v>0.02669196846649332</v>
+        <v>-0.01815218584788664</v>
       </c>
       <c r="D34">
-        <v>-0.01300493499678764</v>
+        <v>-0.04388371059817597</v>
       </c>
       <c r="E34">
-        <v>-0.03779296517288641</v>
+        <v>0.01168134501050166</v>
       </c>
       <c r="F34">
-        <v>-0.05924826712881691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01837223049869935</v>
+      </c>
+      <c r="G34">
+        <v>0.01446394784041019</v>
+      </c>
+      <c r="H34">
+        <v>-0.03700234302896761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0152050973837451</v>
+        <v>-0.01679623171821816</v>
       </c>
       <c r="C36">
-        <v>-0.002271915242642678</v>
+        <v>0.006371533966190583</v>
       </c>
       <c r="D36">
-        <v>-0.007192553959310711</v>
+        <v>-0.006337548159073792</v>
       </c>
       <c r="E36">
-        <v>-0.02553967814061532</v>
+        <v>0.009240571412594144</v>
       </c>
       <c r="F36">
-        <v>-0.03892758323032506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002717394813899283</v>
+      </c>
+      <c r="G36">
+        <v>0.02141825952017565</v>
+      </c>
+      <c r="H36">
+        <v>-0.01756198707997007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005537583406038456</v>
+        <v>-0.02505441110418919</v>
       </c>
       <c r="C38">
-        <v>-0.0003964368082621974</v>
+        <v>-0.01543002761682706</v>
       </c>
       <c r="D38">
-        <v>-0.01838096523533306</v>
+        <v>-0.01514326225152664</v>
       </c>
       <c r="E38">
-        <v>0.02174247706892728</v>
+        <v>-0.001215835377288878</v>
       </c>
       <c r="F38">
-        <v>-0.04812796310131211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.009076628464732266</v>
+      </c>
+      <c r="G38">
+        <v>0.02479502365247791</v>
+      </c>
+      <c r="H38">
+        <v>-0.04469450268481857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0324626174906426</v>
+        <v>-0.0110061927547654</v>
       </c>
       <c r="C39">
-        <v>0.03613286972217608</v>
+        <v>-0.006344556448119661</v>
       </c>
       <c r="D39">
-        <v>-0.02092971129000904</v>
+        <v>-0.08954827857593677</v>
       </c>
       <c r="E39">
-        <v>-0.04461611997418733</v>
+        <v>-0.007646489271816171</v>
       </c>
       <c r="F39">
-        <v>-0.07006295118358907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01787206055909391</v>
+      </c>
+      <c r="G39">
+        <v>0.04081755436028985</v>
+      </c>
+      <c r="H39">
+        <v>-0.07882936135490243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03449421041605884</v>
+        <v>-0.0282342805494604</v>
       </c>
       <c r="C40">
-        <v>0.0666652873695375</v>
+        <v>-0.000588143270685259</v>
       </c>
       <c r="D40">
-        <v>0.01326506985632627</v>
+        <v>-0.03474422942509754</v>
       </c>
       <c r="E40">
-        <v>-0.01238118065141727</v>
+        <v>-0.02578726675464749</v>
       </c>
       <c r="F40">
-        <v>-0.09801024729871619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03626160589196094</v>
+      </c>
+      <c r="G40">
+        <v>0.0233950557693681</v>
+      </c>
+      <c r="H40">
+        <v>-0.07098666828575258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002818970339438912</v>
+        <v>-0.01324840019012174</v>
       </c>
       <c r="C41">
-        <v>0.0003054823348476395</v>
+        <v>0.002645905779538563</v>
       </c>
       <c r="D41">
-        <v>-0.009663168144434681</v>
+        <v>0.01370096749696123</v>
       </c>
       <c r="E41">
-        <v>-0.002675898694462595</v>
+        <v>0.001825025370780304</v>
       </c>
       <c r="F41">
-        <v>-0.01810921421742101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002927734974281499</v>
+      </c>
+      <c r="G41">
+        <v>0.001886454995736986</v>
+      </c>
+      <c r="H41">
+        <v>0.003900476807762968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.332164795903613</v>
+        <v>-0.1454568686278314</v>
       </c>
       <c r="C42">
-        <v>-0.0009375680512806221</v>
+        <v>0.07473750899568256</v>
       </c>
       <c r="D42">
-        <v>-0.7336284563150266</v>
+        <v>-0.2404260640526027</v>
       </c>
       <c r="E42">
-        <v>0.4299103564650636</v>
+        <v>-0.2239716961752218</v>
       </c>
       <c r="F42">
-        <v>0.3203830853090611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8953145525730544</v>
+      </c>
+      <c r="G42">
+        <v>-0.2060299569216127</v>
+      </c>
+      <c r="H42">
+        <v>-0.008549661832336009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003730012904403348</v>
+        <v>-0.01451875157408507</v>
       </c>
       <c r="C43">
-        <v>0.0004864671762497061</v>
+        <v>0.002862158953646117</v>
       </c>
       <c r="D43">
-        <v>-0.01436411030536455</v>
+        <v>0.009420840890537293</v>
       </c>
       <c r="E43">
-        <v>-0.007153774519551796</v>
+        <v>-0.001993652637027914</v>
       </c>
       <c r="F43">
-        <v>-0.03880899809513916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003556629207522731</v>
+      </c>
+      <c r="G43">
+        <v>0.004826380892337204</v>
+      </c>
+      <c r="H43">
+        <v>-0.008945984515150508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02020580507536613</v>
+        <v>-0.01530007708390596</v>
       </c>
       <c r="C44">
-        <v>0.002748741194051258</v>
+        <v>-0.004735532084519919</v>
       </c>
       <c r="D44">
-        <v>-0.023636514109444</v>
+        <v>-0.03947200899141481</v>
       </c>
       <c r="E44">
-        <v>-0.01316875716765094</v>
+        <v>0.007665439095518799</v>
       </c>
       <c r="F44">
-        <v>-0.1146274343967705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001793212538989244</v>
+      </c>
+      <c r="G44">
+        <v>0.04311389554647244</v>
+      </c>
+      <c r="H44">
+        <v>-0.07165459162825999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0212259492437945</v>
+        <v>-0.01360134694357632</v>
       </c>
       <c r="C46">
-        <v>0.01616180321611317</v>
+        <v>0.005275854374845029</v>
       </c>
       <c r="D46">
-        <v>-0.02249579046998617</v>
+        <v>-0.01511703894514288</v>
       </c>
       <c r="E46">
-        <v>-0.04190382700966646</v>
+        <v>0.0004252650676832241</v>
       </c>
       <c r="F46">
-        <v>-0.07658528253034826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01183931054693402</v>
+      </c>
+      <c r="G46">
+        <v>0.04412459683970262</v>
+      </c>
+      <c r="H46">
+        <v>-0.008750910648947327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09365170824447062</v>
+        <v>-0.07027230456263571</v>
       </c>
       <c r="C47">
-        <v>0.0305922136416811</v>
+        <v>-0.0258346660522242</v>
       </c>
       <c r="D47">
-        <v>0.00357454764577693</v>
+        <v>-0.05582548263807115</v>
       </c>
       <c r="E47">
-        <v>-0.03437444411048416</v>
+        <v>0.002974037055788618</v>
       </c>
       <c r="F47">
-        <v>-0.04139377000422945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01493238078787785</v>
+      </c>
+      <c r="G47">
+        <v>-0.008342859953092087</v>
+      </c>
+      <c r="H47">
+        <v>0.02108846119816951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01988361044644705</v>
+        <v>-0.01883208685681004</v>
       </c>
       <c r="C48">
-        <v>0.007397043374214906</v>
+        <v>-0.00485162772268925</v>
       </c>
       <c r="D48">
-        <v>-0.01235560919353852</v>
+        <v>-0.01481095392566279</v>
       </c>
       <c r="E48">
-        <v>-0.02511094262216818</v>
+        <v>0.001149380505194951</v>
       </c>
       <c r="F48">
-        <v>-0.04238184954475287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.007144012222819956</v>
+      </c>
+      <c r="G48">
+        <v>0.02366205058630892</v>
+      </c>
+      <c r="H48">
+        <v>-0.01872919630896419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08877316742925018</v>
+        <v>-0.06784698967288422</v>
       </c>
       <c r="C50">
-        <v>0.02802409908759419</v>
+        <v>-0.02275295492904741</v>
       </c>
       <c r="D50">
-        <v>-0.01664614279936023</v>
+        <v>-0.05416608700093463</v>
       </c>
       <c r="E50">
-        <v>-0.03207254687151143</v>
+        <v>0.01385305120178417</v>
       </c>
       <c r="F50">
-        <v>-0.04047259211852618</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004783709238689153</v>
+      </c>
+      <c r="G50">
+        <v>0.005487398436476962</v>
+      </c>
+      <c r="H50">
+        <v>0.008511649681157661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0178732083739295</v>
+        <v>-0.01945266544701024</v>
       </c>
       <c r="C51">
-        <v>-0.0002872587949108355</v>
+        <v>0.001070010775795476</v>
       </c>
       <c r="D51">
-        <v>-0.001360746351628928</v>
+        <v>-0.009905719639006926</v>
       </c>
       <c r="E51">
-        <v>0.008012929601966843</v>
+        <v>0.007000861208363494</v>
       </c>
       <c r="F51">
-        <v>-0.1014557229531233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.004453183197511734</v>
+      </c>
+      <c r="G51">
+        <v>0.04054250985146712</v>
+      </c>
+      <c r="H51">
+        <v>-0.05269559625216121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09886856147032407</v>
+        <v>-0.08096352083178429</v>
       </c>
       <c r="C53">
-        <v>0.0378038446600124</v>
+        <v>-0.03241121028249697</v>
       </c>
       <c r="D53">
-        <v>0.003619739235804694</v>
+        <v>-0.09257433352234905</v>
       </c>
       <c r="E53">
-        <v>-0.04926598008563837</v>
+        <v>0.005847957733454078</v>
       </c>
       <c r="F53">
-        <v>0.02677337012742507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02968376256281612</v>
+      </c>
+      <c r="G53">
+        <v>-0.03825978619228064</v>
+      </c>
+      <c r="H53">
+        <v>0.03471102641072848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01810388049297871</v>
+        <v>-0.02952417298194789</v>
       </c>
       <c r="C54">
-        <v>-0.004826812295960113</v>
+        <v>-0.008189461738618691</v>
       </c>
       <c r="D54">
-        <v>-0.001629363912036781</v>
+        <v>0.009958309892238528</v>
       </c>
       <c r="E54">
-        <v>-0.03424910694583663</v>
+        <v>0.006635285866969876</v>
       </c>
       <c r="F54">
-        <v>-0.0493643552462661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.006355817378592073</v>
+      </c>
+      <c r="G54">
+        <v>0.03926898524772984</v>
+      </c>
+      <c r="H54">
+        <v>-0.001737295122369833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.101173165041188</v>
+        <v>-0.06637506198615867</v>
       </c>
       <c r="C55">
-        <v>0.01885157334186323</v>
+        <v>-0.02910647284788693</v>
       </c>
       <c r="D55">
-        <v>-0.003967960429784693</v>
+        <v>-0.08751088982863706</v>
       </c>
       <c r="E55">
-        <v>-0.06837918631253519</v>
+        <v>0.01318238600270135</v>
       </c>
       <c r="F55">
-        <v>0.01995407118838391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02137258913964072</v>
+      </c>
+      <c r="G55">
+        <v>-0.01615936405112341</v>
+      </c>
+      <c r="H55">
+        <v>0.0440508522726986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1421340084932974</v>
+        <v>-0.1139313607269091</v>
       </c>
       <c r="C56">
-        <v>0.05494504296823687</v>
+        <v>-0.04911661894571023</v>
       </c>
       <c r="D56">
-        <v>0.04701479956487351</v>
+        <v>-0.1129009567952833</v>
       </c>
       <c r="E56">
-        <v>-0.07041765396012688</v>
+        <v>0.004474227416699185</v>
       </c>
       <c r="F56">
-        <v>0.05712496802355962</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05385067401598242</v>
+      </c>
+      <c r="G56">
+        <v>-0.07103489378912922</v>
+      </c>
+      <c r="H56">
+        <v>0.06399483215935291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04891252498974608</v>
+        <v>-0.03366726518691329</v>
       </c>
       <c r="C57">
-        <v>0.02162791721532221</v>
+        <v>0.01276319618305495</v>
       </c>
       <c r="D57">
-        <v>-0.0148000944470407</v>
+        <v>-0.03523980039182119</v>
       </c>
       <c r="E57">
-        <v>0.004503748906836625</v>
+        <v>-0.01022063170751644</v>
       </c>
       <c r="F57">
-        <v>-0.05667809686012868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.007115689384807069</v>
+      </c>
+      <c r="G57">
+        <v>0.07185975122109832</v>
+      </c>
+      <c r="H57">
+        <v>-0.05202786288362291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2148313148167289</v>
+        <v>-0.1314925014520065</v>
       </c>
       <c r="C58">
-        <v>0.1196307577002076</v>
+        <v>-0.04101897769133152</v>
       </c>
       <c r="D58">
-        <v>-0.1158326573470442</v>
+        <v>-0.1642019919520916</v>
       </c>
       <c r="E58">
-        <v>-0.09221477980837467</v>
+        <v>-0.2200575668522957</v>
       </c>
       <c r="F58">
-        <v>-0.3541224170288038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.08044719118884285</v>
+      </c>
+      <c r="G58">
+        <v>0.8051315380109484</v>
+      </c>
+      <c r="H58">
+        <v>0.4071876315317345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05508132761005097</v>
+        <v>-0.1821269963254078</v>
       </c>
       <c r="C59">
-        <v>-0.04826336689403842</v>
+        <v>-0.005205940907061426</v>
       </c>
       <c r="D59">
-        <v>0.1105184646767589</v>
+        <v>0.2035447816955989</v>
       </c>
       <c r="E59">
-        <v>0.1482141483999221</v>
+        <v>-0.007127091024136624</v>
       </c>
       <c r="F59">
-        <v>-0.07847612938820529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0007545204122283332</v>
+      </c>
+      <c r="G59">
+        <v>0.01866409252783664</v>
+      </c>
+      <c r="H59">
+        <v>-0.02826652725413637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1535252877308257</v>
+        <v>-0.1964054041820793</v>
       </c>
       <c r="C60">
-        <v>0.07992622378216806</v>
+        <v>-0.02474286863629986</v>
       </c>
       <c r="D60">
-        <v>-0.008988573699132217</v>
+        <v>-0.03258017871869399</v>
       </c>
       <c r="E60">
-        <v>0.08761768260514353</v>
+        <v>-0.05688525620471167</v>
       </c>
       <c r="F60">
-        <v>-0.1779255479958013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.05542752771280082</v>
+      </c>
+      <c r="G60">
+        <v>0.02960527016237005</v>
+      </c>
+      <c r="H60">
+        <v>-0.3636570181295747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02482018572479296</v>
+        <v>-0.01911366884416985</v>
       </c>
       <c r="C61">
-        <v>0.02343611098916737</v>
+        <v>-0.009456261519548887</v>
       </c>
       <c r="D61">
-        <v>-0.01563962889246876</v>
+        <v>-0.05687077504115376</v>
       </c>
       <c r="E61">
-        <v>-0.03066704344335052</v>
+        <v>0.002261273439454938</v>
       </c>
       <c r="F61">
-        <v>-0.03796431892803863</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02132060733458984</v>
+      </c>
+      <c r="G61">
+        <v>0.02677997322359479</v>
+      </c>
+      <c r="H61">
+        <v>-0.06025741230230187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01101068107204261</v>
+        <v>-0.01012875721321486</v>
       </c>
       <c r="C63">
-        <v>0.01697916898327666</v>
+        <v>0.001929137585674675</v>
       </c>
       <c r="D63">
-        <v>-0.01799187496865575</v>
+        <v>-0.02417606953198119</v>
       </c>
       <c r="E63">
-        <v>-0.02767531292686291</v>
+        <v>0.004849583453402963</v>
       </c>
       <c r="F63">
-        <v>-0.0161359867656991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01135548945426036</v>
+      </c>
+      <c r="G63">
+        <v>0.01822005522930102</v>
+      </c>
+      <c r="H63">
+        <v>-0.01206703395474443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03938969351796585</v>
+        <v>-0.03678238071076907</v>
       </c>
       <c r="C64">
-        <v>-0.002344927254915208</v>
+        <v>-0.008911633834646762</v>
       </c>
       <c r="D64">
-        <v>-0.006517493787073065</v>
+        <v>-0.04354100679225094</v>
       </c>
       <c r="E64">
-        <v>-0.05413350374863116</v>
+        <v>0.01213279056326659</v>
       </c>
       <c r="F64">
-        <v>-0.04193678477159792</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.003444208287246043</v>
+      </c>
+      <c r="G64">
+        <v>0.00623313027926544</v>
+      </c>
+      <c r="H64">
+        <v>-0.04424573890416195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03937399483021425</v>
+        <v>-0.03808764756396063</v>
       </c>
       <c r="C65">
-        <v>0.0120229086028886</v>
+        <v>-0.001337536112674506</v>
       </c>
       <c r="D65">
-        <v>-0.004846147213737429</v>
+        <v>-0.07016904114522066</v>
       </c>
       <c r="E65">
-        <v>-0.02988943685810081</v>
+        <v>0.00635786417710598</v>
       </c>
       <c r="F65">
-        <v>-0.009748203043476185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03839465597573365</v>
+      </c>
+      <c r="G65">
+        <v>-0.005279645727154486</v>
+      </c>
+      <c r="H65">
+        <v>-0.07680613178953796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03809776208914214</v>
+        <v>-0.01805395924721792</v>
       </c>
       <c r="C66">
-        <v>0.05714762214135657</v>
+        <v>-0.01298953600665137</v>
       </c>
       <c r="D66">
-        <v>-0.01659447261893406</v>
+        <v>-0.11222759947822</v>
       </c>
       <c r="E66">
-        <v>-0.05205512869280553</v>
+        <v>-0.01068289754329064</v>
       </c>
       <c r="F66">
-        <v>-0.05961324789574535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03905920601545583</v>
+      </c>
+      <c r="G66">
+        <v>0.03802060700919512</v>
+      </c>
+      <c r="H66">
+        <v>-0.08294342771015448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0153007176684948</v>
+        <v>-0.04572219698913951</v>
       </c>
       <c r="C67">
-        <v>0.008634100723884834</v>
+        <v>-0.0170977990165894</v>
       </c>
       <c r="D67">
-        <v>-0.006833032008658601</v>
+        <v>-0.0178645722738458</v>
       </c>
       <c r="E67">
-        <v>0.02835773527319421</v>
+        <v>-0.003934405336198085</v>
       </c>
       <c r="F67">
-        <v>-0.03227456343488864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01873939259742754</v>
+      </c>
+      <c r="G67">
+        <v>0.01532647769966599</v>
+      </c>
+      <c r="H67">
+        <v>-0.04330959768152729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07249511902672151</v>
+        <v>-0.1808380851288407</v>
       </c>
       <c r="C68">
-        <v>-0.06591242976699628</v>
+        <v>0.01793880516942269</v>
       </c>
       <c r="D68">
-        <v>0.1225298967921469</v>
+        <v>0.2245190304236946</v>
       </c>
       <c r="E68">
-        <v>0.1552025815846015</v>
+        <v>-0.005344026450100492</v>
       </c>
       <c r="F68">
-        <v>-0.05507711527484074</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03898344983146289</v>
+      </c>
+      <c r="G68">
+        <v>0.02802791775932908</v>
+      </c>
+      <c r="H68">
+        <v>0.05278090082481107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06798058453676296</v>
+        <v>-0.05926516799600534</v>
       </c>
       <c r="C69">
-        <v>0.04030262409144697</v>
+        <v>-0.02707043556596651</v>
       </c>
       <c r="D69">
-        <v>0.01785753837358573</v>
+        <v>-0.05070812687300577</v>
       </c>
       <c r="E69">
-        <v>-0.02745169870866881</v>
+        <v>0.001865206014881503</v>
       </c>
       <c r="F69">
-        <v>-0.03575798051062105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02959468867667848</v>
+      </c>
+      <c r="G69">
+        <v>-0.01028928002160355</v>
+      </c>
+      <c r="H69">
+        <v>-0.008368984747311648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07614200854667126</v>
+        <v>-0.1663113472251786</v>
       </c>
       <c r="C71">
-        <v>-0.06393202908714328</v>
+        <v>0.005861758387547676</v>
       </c>
       <c r="D71">
-        <v>0.1028926481508244</v>
+        <v>0.1836487798243354</v>
       </c>
       <c r="E71">
-        <v>0.2063387097252921</v>
+        <v>-0.01214033474773987</v>
       </c>
       <c r="F71">
-        <v>-0.05493915592605118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04668712401047076</v>
+      </c>
+      <c r="G71">
+        <v>0.03191928236677638</v>
+      </c>
+      <c r="H71">
+        <v>0.02497685870371043</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1162286829245764</v>
+        <v>-0.07192024482453455</v>
       </c>
       <c r="C72">
-        <v>0.06461092009177298</v>
+        <v>-0.03577400403732157</v>
       </c>
       <c r="D72">
-        <v>0.02629606016259033</v>
+        <v>-0.08519908549611784</v>
       </c>
       <c r="E72">
-        <v>-0.05011289897315181</v>
+        <v>-0.01589463298846056</v>
       </c>
       <c r="F72">
-        <v>-0.07525423194274594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.06608994089412673</v>
+      </c>
+      <c r="G72">
+        <v>0.02255333427760448</v>
+      </c>
+      <c r="H72">
+        <v>-0.1329494453484803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2203391294546612</v>
+        <v>-0.253197439607936</v>
       </c>
       <c r="C73">
-        <v>0.114419674083471</v>
+        <v>-0.03567101609689471</v>
       </c>
       <c r="D73">
-        <v>-0.01019512978246161</v>
+        <v>-0.1068235390185139</v>
       </c>
       <c r="E73">
-        <v>0.1790048909335659</v>
+        <v>-0.09718573623473556</v>
       </c>
       <c r="F73">
-        <v>-0.217876747478577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.06069975335614559</v>
+      </c>
+      <c r="G73">
+        <v>0.0490706074452079</v>
+      </c>
+      <c r="H73">
+        <v>-0.4715760197444375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1350856939356184</v>
+        <v>-0.1122206199458972</v>
       </c>
       <c r="C74">
-        <v>0.03775235404047465</v>
+        <v>-0.04874048609128168</v>
       </c>
       <c r="D74">
-        <v>0.01750033773862163</v>
+        <v>-0.1164129021295343</v>
       </c>
       <c r="E74">
-        <v>-0.05105745074990914</v>
+        <v>0.008836504923313511</v>
       </c>
       <c r="F74">
-        <v>0.06783632167761494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03887443384782582</v>
+      </c>
+      <c r="G74">
+        <v>-0.05518935091110613</v>
+      </c>
+      <c r="H74">
+        <v>0.02832207893663097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2251192265620636</v>
+        <v>-0.220655758810356</v>
       </c>
       <c r="C75">
-        <v>0.09752387364090355</v>
+        <v>-0.09085259904820688</v>
       </c>
       <c r="D75">
-        <v>0.08628799822100702</v>
+        <v>-0.1794714441449046</v>
       </c>
       <c r="E75">
-        <v>-0.1027963598817268</v>
+        <v>-0.008821992470031204</v>
       </c>
       <c r="F75">
-        <v>0.09842258642792873</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.0985808896987501</v>
+      </c>
+      <c r="G75">
+        <v>-0.1229505240714181</v>
+      </c>
+      <c r="H75">
+        <v>0.132533764481442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2787098918042523</v>
+        <v>-0.1789541800367781</v>
       </c>
       <c r="C76">
-        <v>0.08151931313190931</v>
+        <v>-0.08328692948360263</v>
       </c>
       <c r="D76">
-        <v>0.1178698334607488</v>
+        <v>-0.1805392971735036</v>
       </c>
       <c r="E76">
-        <v>-0.1550503105890515</v>
+        <v>0.03851271373850102</v>
       </c>
       <c r="F76">
-        <v>0.1726391266336797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09156349771636513</v>
+      </c>
+      <c r="G76">
+        <v>-0.1202564658204737</v>
+      </c>
+      <c r="H76">
+        <v>0.1291505375879914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.123606410109122</v>
+        <v>-0.06362133720145505</v>
       </c>
       <c r="C77">
-        <v>0.0727258683243692</v>
+        <v>-0.01038192121261737</v>
       </c>
       <c r="D77">
-        <v>-0.098533956539248</v>
+        <v>-0.08527897730391291</v>
       </c>
       <c r="E77">
-        <v>-0.04031731860695728</v>
+        <v>-0.01757729119554315</v>
       </c>
       <c r="F77">
-        <v>-0.1709936229710768</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01503017088716587</v>
+      </c>
+      <c r="G77">
+        <v>0.07845717210641247</v>
+      </c>
+      <c r="H77">
+        <v>-0.01626602633436803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07686998389743185</v>
+        <v>-0.03477911880606072</v>
       </c>
       <c r="C78">
-        <v>0.03715703033334845</v>
+        <v>-0.01211776538994847</v>
       </c>
       <c r="D78">
-        <v>-0.05247677049145026</v>
+        <v>-0.07101937863261686</v>
       </c>
       <c r="E78">
-        <v>-0.0783783232496913</v>
+        <v>0.001551126883969939</v>
       </c>
       <c r="F78">
-        <v>-0.1082651055699879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02051154573325462</v>
+      </c>
+      <c r="G78">
+        <v>0.06632593704381283</v>
+      </c>
+      <c r="H78">
+        <v>-0.08706200593420553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2757966930939494</v>
+        <v>-0.1305123590126016</v>
       </c>
       <c r="C80">
-        <v>-0.8850319990171492</v>
+        <v>-0.03129567439499874</v>
       </c>
       <c r="D80">
-        <v>-0.1059509184568011</v>
+        <v>-0.09973780081674137</v>
       </c>
       <c r="E80">
-        <v>-0.299577581868714</v>
+        <v>0.9293965545559542</v>
       </c>
       <c r="F80">
-        <v>-0.05080587012654524</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2309546167343666</v>
+      </c>
+      <c r="G80">
+        <v>0.1581742660013357</v>
+      </c>
+      <c r="H80">
+        <v>-0.006983562001280369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1795606880104862</v>
+        <v>-0.1455325018964233</v>
       </c>
       <c r="C81">
-        <v>0.06284105144568272</v>
+        <v>-0.05921135423894451</v>
       </c>
       <c r="D81">
-        <v>0.09084893453741101</v>
+        <v>-0.1179151240026276</v>
       </c>
       <c r="E81">
-        <v>-0.08864124094687421</v>
+        <v>0.01188639507585083</v>
       </c>
       <c r="F81">
-        <v>0.1055090740444055</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06693993939711179</v>
+      </c>
+      <c r="G81">
+        <v>-0.08258772935511258</v>
+      </c>
+      <c r="H81">
+        <v>0.08670786702472176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03705262794114517</v>
+        <v>-0.03211621716874017</v>
       </c>
       <c r="C83">
-        <v>0.02729935517432964</v>
+        <v>-0.005124759569982585</v>
       </c>
       <c r="D83">
-        <v>-0.01935697926486054</v>
+        <v>-0.02580772055284907</v>
       </c>
       <c r="E83">
-        <v>-0.003459433450858996</v>
+        <v>-0.008950827334425019</v>
       </c>
       <c r="F83">
-        <v>-0.07522904476433992</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.009953957000085157</v>
+      </c>
+      <c r="G83">
+        <v>0.04851500548024462</v>
+      </c>
+      <c r="H83">
+        <v>-0.04184725595049225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2623755541113105</v>
+        <v>-0.198284017017448</v>
       </c>
       <c r="C85">
-        <v>0.07891032474147226</v>
+        <v>-0.07399352958225422</v>
       </c>
       <c r="D85">
-        <v>0.0877312139789059</v>
+        <v>-0.1892250628658357</v>
       </c>
       <c r="E85">
-        <v>-0.1178398819328943</v>
+        <v>-0.003351184449062013</v>
       </c>
       <c r="F85">
-        <v>0.1197510876433442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08057326021745626</v>
+      </c>
+      <c r="G85">
+        <v>-0.1403944679459579</v>
+      </c>
+      <c r="H85">
+        <v>0.08792985843747865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01226633428484462</v>
+        <v>-0.01997164727254503</v>
       </c>
       <c r="C86">
-        <v>0.005739533858229532</v>
+        <v>-0.002026423726279498</v>
       </c>
       <c r="D86">
-        <v>-0.03753042253884485</v>
+        <v>-0.03999154867179496</v>
       </c>
       <c r="E86">
-        <v>-0.03517554691507636</v>
+        <v>-0.0007516681712161509</v>
       </c>
       <c r="F86">
-        <v>-0.08249524940316204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.004019249655640132</v>
+      </c>
+      <c r="G86">
+        <v>0.05416270773783057</v>
+      </c>
+      <c r="H86">
+        <v>-0.09844620897308638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04538856438221693</v>
+        <v>-0.02161175441966913</v>
       </c>
       <c r="C87">
-        <v>0.003334005837863079</v>
+        <v>-0.002875391459651211</v>
       </c>
       <c r="D87">
-        <v>-0.02832707336568125</v>
+        <v>-0.04984162750769826</v>
       </c>
       <c r="E87">
-        <v>-0.01519154787207115</v>
+        <v>0.003679246454889105</v>
       </c>
       <c r="F87">
-        <v>-0.1193691818727525</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.005012763778257032</v>
+      </c>
+      <c r="G87">
+        <v>0.08239494857822466</v>
+      </c>
+      <c r="H87">
+        <v>-0.0819445527951016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01556224195012684</v>
+        <v>-0.04056500598045834</v>
       </c>
       <c r="C88">
-        <v>-0.007937322938357919</v>
+        <v>0.01116392842709627</v>
       </c>
       <c r="D88">
-        <v>0.01814332094103778</v>
+        <v>-0.02293139435817989</v>
       </c>
       <c r="E88">
-        <v>-0.01618756676190834</v>
+        <v>0.01242472310302546</v>
       </c>
       <c r="F88">
-        <v>-0.004882807791351878</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01912844494493082</v>
+      </c>
+      <c r="G88">
+        <v>0.003123033136545661</v>
+      </c>
+      <c r="H88">
+        <v>-0.01855278499092498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09992982942745339</v>
+        <v>-0.2849790770010031</v>
       </c>
       <c r="C89">
-        <v>-0.08510912919707965</v>
+        <v>0.01325862752317029</v>
       </c>
       <c r="D89">
-        <v>0.1736873545536554</v>
+        <v>0.3263414003424138</v>
       </c>
       <c r="E89">
-        <v>0.2677715907934088</v>
+        <v>-0.01469662515924444</v>
       </c>
       <c r="F89">
-        <v>-0.08143315536126942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02576103254146511</v>
+      </c>
+      <c r="G89">
+        <v>-0.009551197676935798</v>
+      </c>
+      <c r="H89">
+        <v>-0.01648152850269055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0898721490292073</v>
+        <v>-0.2345892957672982</v>
       </c>
       <c r="C90">
-        <v>-0.1339737064037488</v>
+        <v>0.01252017147785338</v>
       </c>
       <c r="D90">
-        <v>0.1882589284009872</v>
+        <v>0.2958083097244824</v>
       </c>
       <c r="E90">
-        <v>0.2623058917690675</v>
+        <v>-0.003384224313349172</v>
       </c>
       <c r="F90">
-        <v>-0.05304148933954096</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0517877529607294</v>
+      </c>
+      <c r="G90">
+        <v>-0.007507077849332055</v>
+      </c>
+      <c r="H90">
+        <v>0.04885648310154381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3021677779598493</v>
+        <v>-0.2169021223099376</v>
       </c>
       <c r="C91">
-        <v>0.122750524955133</v>
+        <v>-0.08736036967093951</v>
       </c>
       <c r="D91">
-        <v>0.09772383955476548</v>
+        <v>-0.1694329556895052</v>
       </c>
       <c r="E91">
-        <v>-0.108655743718444</v>
+        <v>-0.009412034757876695</v>
       </c>
       <c r="F91">
-        <v>0.235104288236676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08406656425601576</v>
+      </c>
+      <c r="G91">
+        <v>-0.1457587854963891</v>
+      </c>
+      <c r="H91">
+        <v>0.1672879055040543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1700192633409072</v>
+        <v>-0.2724959271213065</v>
       </c>
       <c r="C92">
-        <v>-0.09053021585157257</v>
+        <v>-0.05238411643789501</v>
       </c>
       <c r="D92">
-        <v>0.3732256656578951</v>
+        <v>0.2148974870752769</v>
       </c>
       <c r="E92">
-        <v>0.2212473780729965</v>
+        <v>0.009596290665941441</v>
       </c>
       <c r="F92">
-        <v>0.06377422189398466</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01711727563003073</v>
+      </c>
+      <c r="G92">
+        <v>0.02512651527304581</v>
+      </c>
+      <c r="H92">
+        <v>0.1202812644890755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09152694447484064</v>
+        <v>-0.2607929767796767</v>
       </c>
       <c r="C93">
-        <v>-0.1131167081720281</v>
+        <v>0.003465771230816013</v>
       </c>
       <c r="D93">
-        <v>0.2359293714739175</v>
+        <v>0.3054421796201902</v>
       </c>
       <c r="E93">
-        <v>0.3773592232855594</v>
+        <v>-0.03050301525551551</v>
       </c>
       <c r="F93">
-        <v>-0.01406433859325978</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05236922488977391</v>
+      </c>
+      <c r="G93">
+        <v>-0.007279948711163946</v>
+      </c>
+      <c r="H93">
+        <v>-0.009077759779208461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2959203434117509</v>
+        <v>-0.2681129730098014</v>
       </c>
       <c r="C94">
-        <v>0.1436683777015761</v>
+        <v>-0.08251768449758329</v>
       </c>
       <c r="D94">
-        <v>0.186679705302296</v>
+        <v>-0.171226394709839</v>
       </c>
       <c r="E94">
-        <v>-0.145511191057687</v>
+        <v>-0.02835853028498835</v>
       </c>
       <c r="F94">
-        <v>0.1741804955478796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.184545110476934</v>
+      </c>
+      <c r="G94">
+        <v>-0.2350684649644169</v>
+      </c>
+      <c r="H94">
+        <v>0.2878118561450585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05101544421502676</v>
+        <v>-0.04726999826209977</v>
       </c>
       <c r="C95">
-        <v>0.05198633317119924</v>
+        <v>-0.03052775059844743</v>
       </c>
       <c r="D95">
-        <v>-0.05308548867989085</v>
+        <v>-0.08989768292125191</v>
       </c>
       <c r="E95">
-        <v>-0.06158394094636074</v>
+        <v>-0.08341482159268014</v>
       </c>
       <c r="F95">
-        <v>-0.06872823483793433</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.006435095729741341</v>
+      </c>
+      <c r="G95">
+        <v>0.05115405464199765</v>
+      </c>
+      <c r="H95">
+        <v>-0.05369694405302099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1601742438926257</v>
+        <v>-0.1819002343080915</v>
       </c>
       <c r="C98">
-        <v>0.06739988061374005</v>
+        <v>-0.0523249660893568</v>
       </c>
       <c r="D98">
-        <v>-0.01335454973013644</v>
+        <v>-0.05029711814812812</v>
       </c>
       <c r="E98">
-        <v>0.1438989455471606</v>
+        <v>-0.06195835452495393</v>
       </c>
       <c r="F98">
-        <v>-0.1334425882776773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01014838161196577</v>
+      </c>
+      <c r="G98">
+        <v>0.08498965706038972</v>
+      </c>
+      <c r="H98">
+        <v>-0.331296714933453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009686724800099645</v>
+        <v>-0.01528273464791258</v>
       </c>
       <c r="C101">
-        <v>0.01087662427095634</v>
+        <v>0.0002627432683701988</v>
       </c>
       <c r="D101">
-        <v>-0.02622447236332784</v>
+        <v>-0.01745627342311827</v>
       </c>
       <c r="E101">
-        <v>-0.07860138420787821</v>
+        <v>0.00430137131120117</v>
       </c>
       <c r="F101">
-        <v>-0.168834422445428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01833624719136448</v>
+      </c>
+      <c r="G101">
+        <v>0.1025965620046102</v>
+      </c>
+      <c r="H101">
+        <v>0.02213696786635317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1165818870659707</v>
+        <v>-0.09607746435722296</v>
       </c>
       <c r="C102">
-        <v>0.04185616882068736</v>
+        <v>-0.02885668202648641</v>
       </c>
       <c r="D102">
-        <v>0.03927218867131521</v>
+        <v>-0.09109704233640549</v>
       </c>
       <c r="E102">
-        <v>-0.06947904775282356</v>
+        <v>0.004323773555394277</v>
       </c>
       <c r="F102">
-        <v>0.07776865234087502</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04697834664341845</v>
+      </c>
+      <c r="G102">
+        <v>-0.0724416036512622</v>
+      </c>
+      <c r="H102">
+        <v>0.06580961804530558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04375575892607683</v>
+        <v>-0.01431253830533726</v>
       </c>
       <c r="C103">
-        <v>0.002540382703058722</v>
+        <v>-0.005424857202715438</v>
       </c>
       <c r="D103">
-        <v>0.01122180659002102</v>
+        <v>-0.01605839440716535</v>
       </c>
       <c r="E103">
-        <v>-0.0502162671505952</v>
+        <v>0.01069215432922607</v>
       </c>
       <c r="F103">
-        <v>-0.009115299616408386</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.007191072417946898</v>
+      </c>
+      <c r="G103">
+        <v>0.002162872898946657</v>
+      </c>
+      <c r="H103">
+        <v>0.01188660341840362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1619697024653373</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9641425064918259</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1225541971385266</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0295416383384644</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1296843213473712</v>
+      </c>
+      <c r="G104">
+        <v>-0.0122075518220811</v>
+      </c>
+      <c r="H104">
+        <v>0.0496860872924085</v>
       </c>
     </row>
   </sheetData>
